--- a/readdata.xlsx
+++ b/readdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspace\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF31CDF-9E05-4C33-9F5A-6BE025DF303E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42DC09E-BBDF-41CD-A245-EF44722DA202}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{2EFD4843-E2CC-49AE-8608-954EC0235E31}"/>
   </bookViews>
@@ -32,124 +32,124 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t>Col_one row1</t>
-  </si>
-  <si>
-    <t>Col_one row2</t>
-  </si>
-  <si>
-    <t>Col_one row3</t>
-  </si>
-  <si>
-    <t>Col_one row4</t>
-  </si>
-  <si>
-    <t>Col_one row5</t>
-  </si>
-  <si>
-    <t>Col_one row6</t>
-  </si>
-  <si>
-    <t>Col_one row7</t>
-  </si>
-  <si>
-    <t>Col_one row8</t>
-  </si>
-  <si>
-    <t>Col_one row9</t>
-  </si>
-  <si>
-    <t>Col_one row10</t>
-  </si>
-  <si>
-    <t>Col_one row11</t>
-  </si>
-  <si>
-    <t>Col_one row12</t>
-  </si>
-  <si>
-    <t>Col_one row13</t>
-  </si>
-  <si>
-    <t>Col_one row14</t>
-  </si>
-  <si>
-    <t>Col_one row15</t>
-  </si>
-  <si>
-    <t>Col_one row16</t>
-  </si>
-  <si>
-    <t>Col_one row17</t>
-  </si>
-  <si>
-    <t>Col_one row18</t>
-  </si>
-  <si>
-    <t>Col_one row19</t>
-  </si>
-  <si>
-    <t>Col_one row20</t>
-  </si>
-  <si>
-    <t>Col_two row1</t>
-  </si>
-  <si>
-    <t>Col_two row2</t>
-  </si>
-  <si>
-    <t>Col_two row3</t>
-  </si>
-  <si>
-    <t>Col_two row4</t>
-  </si>
-  <si>
-    <t>Col_two row5</t>
-  </si>
-  <si>
-    <t>Col_two row6</t>
-  </si>
-  <si>
-    <t>Col_two row7</t>
-  </si>
-  <si>
-    <t>Col_two row8</t>
-  </si>
-  <si>
-    <t>Col_two row9</t>
-  </si>
-  <si>
-    <t>Col_two row10</t>
-  </si>
-  <si>
-    <t>Col_two row11</t>
-  </si>
-  <si>
-    <t>Col_two row12</t>
-  </si>
-  <si>
-    <t>Col_two row13</t>
-  </si>
-  <si>
-    <t>Col_two row14</t>
-  </si>
-  <si>
-    <t>Col_two row15</t>
-  </si>
-  <si>
-    <t>Col_two row16</t>
-  </si>
-  <si>
-    <t>Col_two row17</t>
-  </si>
-  <si>
-    <t>Col_two row18</t>
-  </si>
-  <si>
-    <t>Col_two row19</t>
-  </si>
-  <si>
-    <t>Col_two row20</t>
+    <t>Col1_Row1</t>
+  </si>
+  <si>
+    <t>Col1_Row2</t>
+  </si>
+  <si>
+    <t>Col1_Row3</t>
+  </si>
+  <si>
+    <t>Col1_Row4</t>
+  </si>
+  <si>
+    <t>Col1_Row5</t>
+  </si>
+  <si>
+    <t>Col1_Row6</t>
+  </si>
+  <si>
+    <t>Col1_Row7</t>
+  </si>
+  <si>
+    <t>Col1_Row8</t>
+  </si>
+  <si>
+    <t>Col1_Row9</t>
+  </si>
+  <si>
+    <t>Col1_Row10</t>
+  </si>
+  <si>
+    <t>Col1_Row11</t>
+  </si>
+  <si>
+    <t>Col1_Row12</t>
+  </si>
+  <si>
+    <t>Col1_Row13</t>
+  </si>
+  <si>
+    <t>Col1_Row14</t>
+  </si>
+  <si>
+    <t>Col1_Row15</t>
+  </si>
+  <si>
+    <t>Col1_Row16</t>
+  </si>
+  <si>
+    <t>Col1_Row17</t>
+  </si>
+  <si>
+    <t>Col1_Row18</t>
+  </si>
+  <si>
+    <t>Col1_Row19</t>
+  </si>
+  <si>
+    <t>Col1_Row20</t>
+  </si>
+  <si>
+    <t>Col2_Row1</t>
+  </si>
+  <si>
+    <t>Col2_Row2</t>
+  </si>
+  <si>
+    <t>Col2_Row3</t>
+  </si>
+  <si>
+    <t>Col2_Row4</t>
+  </si>
+  <si>
+    <t>Col2_Row5</t>
+  </si>
+  <si>
+    <t>Col2_Row6</t>
+  </si>
+  <si>
+    <t>Col2_Row7</t>
+  </si>
+  <si>
+    <t>Col2_Row8</t>
+  </si>
+  <si>
+    <t>Col2_Row9</t>
+  </si>
+  <si>
+    <t>Col2_Row10</t>
+  </si>
+  <si>
+    <t>Col2_Row11</t>
+  </si>
+  <si>
+    <t>Col2_Row12</t>
+  </si>
+  <si>
+    <t>Col2_Row13</t>
+  </si>
+  <si>
+    <t>Col2_Row14</t>
+  </si>
+  <si>
+    <t>Col2_Row15</t>
+  </si>
+  <si>
+    <t>Col2_Row16</t>
+  </si>
+  <si>
+    <t>Col2_Row17</t>
+  </si>
+  <si>
+    <t>Col2_Row18</t>
+  </si>
+  <si>
+    <t>Col2_Row19</t>
+  </si>
+  <si>
+    <t>Col2_Row20</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B890D0C-204A-4EA7-B29C-159656D801AF}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
